--- a/static/files/template_excel.xlsx
+++ b/static/files/template_excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\web\newVJR\templates\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\web\newVJR\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8660B165-EC0E-449E-B2BB-DF8190C0B8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04049A5-09F6-4BF3-A92A-97E894467D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{5C2BF85A-2B13-4869-BB6B-0407D883A397}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Nama Nasabah</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>Waktu Peminjaman</t>
+  </si>
+  <si>
+    <t>Optional 1</t>
+  </si>
+  <si>
+    <t>Optional 2</t>
+  </si>
+  <si>
+    <t>Optional 3</t>
+  </si>
+  <si>
+    <t>Optional 4</t>
   </si>
 </sst>
 </file>
@@ -453,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E718065-046D-47AE-A108-4191EEBAB5ED}">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,9 +482,10 @@
     <col min="11" max="11" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -488,7 +501,7 @@
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -512,8 +525,20 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -528,7 +553,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -543,7 +568,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -558,7 +583,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -573,7 +598,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -588,7 +613,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -603,7 +628,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -618,7 +643,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -633,7 +658,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -648,7 +673,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -663,7 +688,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -678,7 +703,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -693,7 +718,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -708,7 +733,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -723,7 +748,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
